--- a/public/foldercompanies/LlakaScript/LlakaScript.xlsx
+++ b/public/foldercompanies/LlakaScript/LlakaScript.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="24">
   <si>
     <t xml:space="preserve">Menu_Title</t>
   </si>
@@ -55,34 +55,43 @@
     <t xml:space="preserve">Price</t>
   </si>
   <si>
+    <t xml:space="preserve">profile</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cucina Italiana</t>
   </si>
   <si>
-    <t xml:space="preserve">Cocina Italiana</t>
+    <t xml:space="preserve">profile_seven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#33ffff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#d2a700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">background-food.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lasagna.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">primera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lasagna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asaña clásica con carne y salsa bechamel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.50</t>
   </si>
   <si>
     <t xml:space="preserve">#9b1c31</t>
   </si>
   <si>
-    <t xml:space="preserve">#d2a700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/images/italia.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/images/lasagna.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lasagna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asaña clásica con carne y salsa bechamel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.50</t>
+    <t xml:space="preserve">segunda</t>
   </si>
 </sst>
 </file>
@@ -92,11 +101,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -116,6 +126,20 @@
     <font>
       <sz val="9"/>
       <name val="arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="9"/>
+      <name val="arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -169,7 +193,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -183,6 +207,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -203,24 +235,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="35.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="34.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="34.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="45.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="24.87"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="7" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="60.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.58"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="12" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="12" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -257,41 +289,206 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="D2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="H3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="K3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I12" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/public/foldercompanies/LlakaScript/LlakaScript.xlsx
+++ b/public/foldercompanies/LlakaScript/LlakaScript.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="25">
   <si>
     <t xml:space="preserve">Menu_Title</t>
   </si>
@@ -58,34 +58,37 @@
     <t xml:space="preserve">profile</t>
   </si>
   <si>
+    <t xml:space="preserve">Pizza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">profileE_one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#33ffff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#d2a700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">background-food.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lasagna.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">primera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lasagna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asaña clásica con carne y salsa bechamel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.50</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cucina Italiana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">profile_seven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#33ffff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#d2a700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">background-food.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lasagna.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">primera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lasagna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asaña clásica con carne y salsa bechamel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.50</t>
   </si>
   <si>
     <t xml:space="preserve">#9b1c31</t>
@@ -235,13 +238,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="35.85"/>
@@ -332,14 +335,14 @@
       </c>
     </row>
     <row r="3" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>12</v>
+      <c r="A3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>15</v>
@@ -371,13 +374,13 @@
     </row>
     <row r="4" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>15</v>
@@ -409,13 +412,13 @@
     </row>
     <row r="5" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>15</v>
@@ -427,7 +430,7 @@
         <v>17</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H5" s="3" t="n">
         <v>1</v>
@@ -447,48 +450,614 @@
     </row>
     <row r="6" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="5"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I12" s="5"/>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F34" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/public/foldercompanies/LlakaScript/LlakaScript.xlsx
+++ b/public/foldercompanies/LlakaScript/LlakaScript.xlsx
@@ -61,7 +61,7 @@
     <t xml:space="preserve">Pizza</t>
   </si>
   <si>
-    <t xml:space="preserve">profileE_one</t>
+    <t xml:space="preserve">profile_one</t>
   </si>
   <si>
     <t xml:space="preserve">#33ffff</t>

--- a/public/foldercompanies/LlakaScript/LlakaScript.xlsx
+++ b/public/foldercompanies/LlakaScript/LlakaScript.xlsx
@@ -61,7 +61,7 @@
     <t xml:space="preserve">Pizza</t>
   </si>
   <si>
-    <t xml:space="preserve">profile_one</t>
+    <t xml:space="preserve">profile_eleven</t>
   </si>
   <si>
     <t xml:space="preserve">#33ffff</t>
@@ -244,7 +244,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="35.85"/>
@@ -300,7 +300,7 @@
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -338,7 +338,7 @@
       <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -376,7 +376,7 @@
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -414,7 +414,7 @@
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -452,7 +452,7 @@
       <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -490,7 +490,7 @@
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -528,7 +528,7 @@
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -566,7 +566,7 @@
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -604,7 +604,7 @@
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -642,7 +642,7 @@
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -680,7 +680,7 @@
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -718,7 +718,7 @@
       <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -756,7 +756,7 @@
       <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -794,7 +794,7 @@
       <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -832,7 +832,7 @@
       <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -870,7 +870,7 @@
       <c r="A17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -908,7 +908,7 @@
       <c r="A18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -946,7 +946,7 @@
       <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -984,7 +984,7 @@
       <c r="A20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -1022,7 +1022,7 @@
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="4" t="s">

--- a/public/foldercompanies/LlakaScript/LlakaScript.xlsx
+++ b/public/foldercompanies/LlakaScript/LlakaScript.xlsx
@@ -61,7 +61,7 @@
     <t xml:space="preserve">Pizza</t>
   </si>
   <si>
-    <t xml:space="preserve">profile_eleven</t>
+    <t xml:space="preserve">profile_thirteen</t>
   </si>
   <si>
     <t xml:space="preserve">#33ffff</t>
@@ -241,10 +241,10 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B21"/>
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="35.85"/>
@@ -300,10 +300,10 @@
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -338,7 +338,7 @@
       <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -376,7 +376,7 @@
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -414,7 +414,7 @@
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -452,7 +452,7 @@
       <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -490,7 +490,7 @@
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -528,7 +528,7 @@
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -566,7 +566,7 @@
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -604,7 +604,7 @@
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -642,7 +642,7 @@
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -680,7 +680,7 @@
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -718,7 +718,7 @@
       <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -756,7 +756,7 @@
       <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -794,7 +794,7 @@
       <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -832,7 +832,7 @@
       <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -870,7 +870,7 @@
       <c r="A17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -908,7 +908,7 @@
       <c r="A18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -946,7 +946,7 @@
       <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -984,7 +984,7 @@
       <c r="A20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -1022,7 +1022,7 @@
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="4" t="s">

--- a/public/foldercompanies/LlakaScript/LlakaScript.xlsx
+++ b/public/foldercompanies/LlakaScript/LlakaScript.xlsx
@@ -1022,7 +1022,7 @@
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="4" t="s">

--- a/public/foldercompanies/LlakaScript/LlakaScript.xlsx
+++ b/public/foldercompanies/LlakaScript/LlakaScript.xlsx
@@ -61,7 +61,7 @@
     <t xml:space="preserve">Pizza</t>
   </si>
   <si>
-    <t xml:space="preserve">profile_thirteen</t>
+    <t xml:space="preserve">profile_one</t>
   </si>
   <si>
     <t xml:space="preserve">#33ffff</t>
@@ -241,10 +241,10 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="35.85"/>
@@ -1022,7 +1022,7 @@
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="4" t="s">

--- a/public/foldercompanies/LlakaScript/LlakaScript.xlsx
+++ b/public/foldercompanies/LlakaScript/LlakaScript.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="27">
   <si>
     <t xml:space="preserve">Menu_Title</t>
   </si>
@@ -61,7 +61,7 @@
     <t xml:space="preserve">Pizza</t>
   </si>
   <si>
-    <t xml:space="preserve">profile_one</t>
+    <t xml:space="preserve">profile_ten</t>
   </si>
   <si>
     <t xml:space="preserve">#33ffff</t>
@@ -70,28 +70,34 @@
     <t xml:space="preserve">#d2a700</t>
   </si>
   <si>
+    <t xml:space="preserve">fondo.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lasagna.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">primera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lasagna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asaña clásica con carne y salsa bechamel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cucina Italiana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">profile_three</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#9b1c31</t>
+  </si>
+  <si>
     <t xml:space="preserve">background-food.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lasagna.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">primera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lasagna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asaña clásica con carne y salsa bechamel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cucina Italiana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#9b1c31</t>
   </si>
   <si>
     <t xml:space="preserve">segunda</t>
@@ -241,10 +247,10 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B21"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="35.85"/>
@@ -339,16 +345,16 @@
         <v>22</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>17</v>
@@ -377,16 +383,16 @@
         <v>22</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>17</v>
@@ -415,22 +421,22 @@
         <v>22</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H5" s="3" t="n">
         <v>1</v>
@@ -453,22 +459,22 @@
         <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H6" s="4" t="n">
         <v>1</v>
@@ -491,7 +497,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>14</v>
@@ -500,7 +506,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>17</v>
@@ -529,16 +535,16 @@
         <v>22</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>17</v>
@@ -567,16 +573,16 @@
         <v>22</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>17</v>
@@ -605,22 +611,22 @@
         <v>22</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H10" s="3" t="n">
         <v>1</v>
@@ -643,22 +649,22 @@
         <v>22</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H11" s="4" t="n">
         <v>1</v>
@@ -681,7 +687,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>14</v>
@@ -690,7 +696,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>17</v>
@@ -719,16 +725,16 @@
         <v>22</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>17</v>
@@ -757,16 +763,16 @@
         <v>22</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>17</v>
@@ -795,22 +801,22 @@
         <v>22</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H15" s="3" t="n">
         <v>1</v>
@@ -833,22 +839,22 @@
         <v>22</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H16" s="4" t="n">
         <v>1</v>
@@ -871,7 +877,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>14</v>
@@ -879,8 +885,8 @@
       <c r="D17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>16</v>
+      <c r="E17" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>17</v>
@@ -909,16 +915,16 @@
         <v>22</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>16</v>
+      <c r="E18" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>17</v>
@@ -947,16 +953,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>16</v>
+      <c r="E19" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>17</v>
@@ -985,22 +991,22 @@
         <v>22</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>16</v>
+      <c r="E20" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H20" s="4" t="n">
         <v>1</v>
@@ -1023,22 +1029,22 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>16</v>
+      <c r="E21" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H21" s="4" t="n">
         <v>1</v>

--- a/public/foldercompanies/LlakaScript/LlakaScript.xlsx
+++ b/public/foldercompanies/LlakaScript/LlakaScript.xlsx
@@ -61,7 +61,7 @@
     <t xml:space="preserve">Pizza</t>
   </si>
   <si>
-    <t xml:space="preserve">profile_ten</t>
+    <t xml:space="preserve">profileE_one</t>
   </si>
   <si>
     <t xml:space="preserve">#33ffff</t>
@@ -250,7 +250,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="35.85"/>

--- a/public/foldercompanies/LlakaScript/LlakaScript.xlsx
+++ b/public/foldercompanies/LlakaScript/LlakaScript.xlsx
@@ -61,7 +61,7 @@
     <t xml:space="preserve">Pizza</t>
   </si>
   <si>
-    <t xml:space="preserve">profileE_one</t>
+    <t xml:space="preserve">profile_ten</t>
   </si>
   <si>
     <t xml:space="preserve">#33ffff</t>
@@ -247,7 +247,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -306,7 +306,7 @@
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="3" t="s">

--- a/public/foldercompanies/LlakaScript/LlakaScript.xlsx
+++ b/public/foldercompanies/LlakaScript/LlakaScript.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="ConfigurationApp" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="29">
   <si>
     <t xml:space="preserve">Menu_Title</t>
   </si>
@@ -101,6 +102,12 @@
   </si>
   <si>
     <t xml:space="preserve">segunda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">si</t>
   </si>
 </sst>
 </file>
@@ -246,11 +253,11 @@
   </sheetPr>
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="35.85"/>
@@ -1074,4 +1081,38 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/public/foldercompanies/LlakaScript/LlakaScript.xlsx
+++ b/public/foldercompanies/LlakaScript/LlakaScript.xlsx
@@ -9,7 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="ConfigurationApp" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Hoja2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -104,10 +104,10 @@
     <t xml:space="preserve">segunda</t>
   </si>
   <si>
-    <t xml:space="preserve">Todo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">si</t>
+    <t xml:space="preserve">Config</t>
+  </si>
+  <si>
+    <t xml:space="preserve">todo</t>
   </si>
 </sst>
 </file>
@@ -1091,7 +1091,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/public/foldercompanies/LlakaScript/LlakaScript.xlsx
+++ b/public/foldercompanies/LlakaScript/LlakaScript.xlsx
@@ -9,7 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Hoja2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Promotion" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="35">
   <si>
     <t xml:space="preserve">Menu_Title</t>
   </si>
@@ -59,6 +59,12 @@
     <t xml:space="preserve">profile</t>
   </si>
   <si>
+    <t xml:space="preserve">highlight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">status</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pizza</t>
   </si>
   <si>
@@ -89,25 +95,37 @@
     <t xml:space="preserve">17.50</t>
   </si>
   <si>
+    <t xml:space="preserve">profile_three</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#9b1c31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">background-food.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">segunda</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cucina Italiana</t>
   </si>
   <si>
-    <t xml:space="preserve">profile_three</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#9b1c31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">background-food.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">segunda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Config</t>
-  </si>
-  <si>
-    <t xml:space="preserve">todo</t>
+    <t xml:space="preserve">Pizza Tropical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pizza Salchipapas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pizza Cuatro Quesos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pizza Cuatro Variada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pizza con Palmitos</t>
   </si>
 </sst>
 </file>
@@ -251,13 +269,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="35.85"/>
@@ -268,7 +286,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="60.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="12" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -308,40 +328,46 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L2" s="3" t="n">
         <v>1</v>
@@ -349,113 +375,113 @@
     </row>
     <row r="3" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" s="3" t="n">
         <v>1</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L3" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>22</v>
+      <c r="A4" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" s="3" t="n">
         <v>1</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L4" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>22</v>
+      <c r="A5" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H5" s="3" t="n">
         <v>1</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L5" s="3" t="n">
         <v>1</v>
@@ -463,37 +489,37 @@
     </row>
     <row r="6" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H6" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L6" s="3" t="n">
         <v>1</v>
@@ -501,37 +527,37 @@
     </row>
     <row r="7" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H7" s="3" t="n">
         <v>1</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L7" s="3" t="n">
         <v>1</v>
@@ -539,37 +565,37 @@
     </row>
     <row r="8" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H8" s="3" t="n">
         <v>1</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L8" s="3" t="n">
         <v>1</v>
@@ -577,37 +603,37 @@
     </row>
     <row r="9" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H9" s="3" t="n">
         <v>1</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L9" s="3" t="n">
         <v>1</v>
@@ -615,37 +641,37 @@
     </row>
     <row r="10" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H10" s="3" t="n">
         <v>1</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L10" s="3" t="n">
         <v>1</v>
@@ -653,37 +679,37 @@
     </row>
     <row r="11" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H11" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L11" s="3" t="n">
         <v>1</v>
@@ -691,37 +717,37 @@
     </row>
     <row r="12" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H12" s="3" t="n">
         <v>1</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L12" s="3" t="n">
         <v>1</v>
@@ -729,37 +755,37 @@
     </row>
     <row r="13" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H13" s="3" t="n">
         <v>1</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L13" s="3" t="n">
         <v>1</v>
@@ -767,37 +793,37 @@
     </row>
     <row r="14" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H14" s="3" t="n">
         <v>1</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L14" s="3" t="n">
         <v>1</v>
@@ -805,37 +831,37 @@
     </row>
     <row r="15" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H15" s="3" t="n">
         <v>1</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L15" s="3" t="n">
         <v>1</v>
@@ -843,37 +869,37 @@
     </row>
     <row r="16" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H16" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L16" s="3" t="n">
         <v>1</v>
@@ -881,37 +907,37 @@
     </row>
     <row r="17" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H17" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L17" s="4" t="n">
         <v>1</v>
@@ -919,37 +945,37 @@
     </row>
     <row r="18" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H18" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L18" s="4" t="n">
         <v>1</v>
@@ -957,37 +983,37 @@
     </row>
     <row r="19" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H19" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L19" s="4" t="n">
         <v>1</v>
@@ -995,37 +1021,37 @@
     </row>
     <row r="20" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H20" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L20" s="4" t="n">
         <v>1</v>
@@ -1033,37 +1059,37 @@
     </row>
     <row r="21" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H21" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L21" s="4" t="n">
         <v>1</v>
@@ -1088,22 +1114,255 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="34.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.34"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>28</v>
+    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
